--- a/Data/collapsed database manual cases/tamaulipas_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/tamaulipas_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/tamaulipas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99D667AC-63BD-7C42-B02D-8A889A81B406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E11102C-515A-814A-9161-E3DA732C0CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3062" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="476">
   <si>
     <t>uniqueid</t>
   </si>
@@ -1430,6 +1430,27 @@
   </si>
   <si>
     <t>https://www.hoytamaulipas.net/notas/83554/Inicia-PRI-registro-de-candidatos-en-31-municipios-de-Tamaulipas.html</t>
+  </si>
+  <si>
+    <t>MARIO ALBERTO LOPEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PES</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL LOPEZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>LUIS LAURO REYES RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>OLGA LIDIA HERNANDEZ BARRIENTOS</t>
+  </si>
+  <si>
+    <t>ADRIAN OSEGUERA KERNION</t>
+  </si>
+  <si>
+    <t>PT_MORENA</t>
   </si>
 </sst>
 </file>
@@ -1783,10 +1804,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S345"/>
+  <dimension ref="A1:S350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H348" sqref="H348"/>
+      <selection activeCell="K247" sqref="K247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15756,6 +15777,106 @@
         <v>38</v>
       </c>
     </row>
+    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>28009</v>
+      </c>
+      <c r="B346">
+        <v>2021</v>
+      </c>
+      <c r="C346" t="s">
+        <v>19</v>
+      </c>
+      <c r="E346" t="s">
+        <v>470</v>
+      </c>
+      <c r="F346" t="s">
+        <v>474</v>
+      </c>
+      <c r="H346" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>28010</v>
+      </c>
+      <c r="B347">
+        <v>2021</v>
+      </c>
+      <c r="C347" t="s">
+        <v>19</v>
+      </c>
+      <c r="E347" t="s">
+        <v>470</v>
+      </c>
+      <c r="F347" t="s">
+        <v>473</v>
+      </c>
+      <c r="H347" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>28013</v>
+      </c>
+      <c r="B348">
+        <v>2021</v>
+      </c>
+      <c r="C348" t="s">
+        <v>19</v>
+      </c>
+      <c r="E348" t="s">
+        <v>470</v>
+      </c>
+      <c r="F348" t="s">
+        <v>472</v>
+      </c>
+      <c r="H348" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>28015</v>
+      </c>
+      <c r="B349">
+        <v>2021</v>
+      </c>
+      <c r="C349" t="s">
+        <v>19</v>
+      </c>
+      <c r="E349" t="s">
+        <v>470</v>
+      </c>
+      <c r="F349" t="s">
+        <v>471</v>
+      </c>
+      <c r="H349" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>28022</v>
+      </c>
+      <c r="B350">
+        <v>2021</v>
+      </c>
+      <c r="C350" t="s">
+        <v>19</v>
+      </c>
+      <c r="E350" t="s">
+        <v>470</v>
+      </c>
+      <c r="F350" t="s">
+        <v>469</v>
+      </c>
+      <c r="H350" t="s">
+        <v>475</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S345" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">

--- a/Data/collapsed database manual cases/tamaulipas_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/tamaulipas_collapsed_edited.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E11102C-515A-814A-9161-E3DA732C0CFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AB961A-2688-8F47-8A5E-464656325494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="500" windowWidth="31360" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3082" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3126" uniqueCount="490">
   <si>
     <t>uniqueid</t>
   </si>
@@ -1451,6 +1451,48 @@
   </si>
   <si>
     <t>PT_MORENA</t>
+  </si>
+  <si>
+    <t>PAN_PRD_MC</t>
+  </si>
+  <si>
+    <t>JORGE LUIS GONZALEZ ROSALEZ</t>
+  </si>
+  <si>
+    <t>MORENA</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>LETICIA PE√ëA VILLARREAL</t>
+  </si>
+  <si>
+    <t>REYES WENSESLADO ZU√ëIGA VAZQUEZ</t>
+  </si>
+  <si>
+    <t>ISABEL MARTINEZ GONZALEZ</t>
+  </si>
+  <si>
+    <t>CARLOS RAFAEL ULIVARRI LOPEZ</t>
+  </si>
+  <si>
+    <t>ABEL ENRIQUE GAMEZ CANTU</t>
+  </si>
+  <si>
+    <t>GERARDO ALDAPE BALLESTEROS</t>
+  </si>
+  <si>
+    <t>XICOTENCATL GONZALEZ URESTI</t>
+  </si>
+  <si>
+    <t>EDUARDO ABRAHAM GATTAS BAEZ</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/PANTamaulipasMx/posts/le-enviamos-felicitaciones-a-evangelina-ávila-cabriales-quien-en-antiguomorelos-/3389893601054305/</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/100058733756851/posts/3357600900990953/</t>
   </si>
 </sst>
 </file>
@@ -1804,10 +1846,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S350"/>
+  <dimension ref="A1:S364"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K247" sqref="K247"/>
+      <selection activeCell="I367" sqref="I367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15877,6 +15919,250 @@
         <v>475</v>
       </c>
     </row>
+    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>28002</v>
+      </c>
+      <c r="B351">
+        <v>2021</v>
+      </c>
+      <c r="E351" t="s">
+        <v>476</v>
+      </c>
+      <c r="F351" t="s">
+        <v>477</v>
+      </c>
+      <c r="H351" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>28003</v>
+      </c>
+      <c r="B352">
+        <v>2021</v>
+      </c>
+      <c r="E352" t="s">
+        <v>476</v>
+      </c>
+      <c r="F352" t="s">
+        <v>63</v>
+      </c>
+      <c r="H352" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>28004</v>
+      </c>
+      <c r="B353">
+        <v>2021</v>
+      </c>
+      <c r="E353" t="s">
+        <v>476</v>
+      </c>
+      <c r="F353" t="s">
+        <v>72</v>
+      </c>
+      <c r="H353" t="s">
+        <v>29</v>
+      </c>
+      <c r="I353" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>28007</v>
+      </c>
+      <c r="B354">
+        <v>2021</v>
+      </c>
+      <c r="E354" t="s">
+        <v>476</v>
+      </c>
+      <c r="F354" t="s">
+        <v>480</v>
+      </c>
+      <c r="H354" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>28016</v>
+      </c>
+      <c r="B355">
+        <v>2021</v>
+      </c>
+      <c r="E355" t="s">
+        <v>476</v>
+      </c>
+      <c r="F355" t="s">
+        <v>481</v>
+      </c>
+      <c r="H355" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>28020</v>
+      </c>
+      <c r="B356">
+        <v>2021</v>
+      </c>
+      <c r="E356" t="s">
+        <v>476</v>
+      </c>
+      <c r="F356" t="s">
+        <v>482</v>
+      </c>
+      <c r="H356" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>28027</v>
+      </c>
+      <c r="B357">
+        <v>2021</v>
+      </c>
+      <c r="E357" t="s">
+        <v>476</v>
+      </c>
+      <c r="F357" t="s">
+        <v>308</v>
+      </c>
+      <c r="H357" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>28032</v>
+      </c>
+      <c r="B358">
+        <v>2021</v>
+      </c>
+      <c r="E358" t="s">
+        <v>476</v>
+      </c>
+      <c r="F358" t="s">
+        <v>356</v>
+      </c>
+      <c r="H358" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>28033</v>
+      </c>
+      <c r="B359">
+        <v>2021</v>
+      </c>
+      <c r="E359" t="s">
+        <v>476</v>
+      </c>
+      <c r="F359" t="s">
+        <v>483</v>
+      </c>
+      <c r="H359" t="s">
+        <v>29</v>
+      </c>
+      <c r="I359" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>28035</v>
+      </c>
+      <c r="B360">
+        <v>2021</v>
+      </c>
+      <c r="E360" t="s">
+        <v>476</v>
+      </c>
+      <c r="F360" t="s">
+        <v>385</v>
+      </c>
+      <c r="H360" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>28037</v>
+      </c>
+      <c r="B361">
+        <v>2021</v>
+      </c>
+      <c r="E361" t="s">
+        <v>476</v>
+      </c>
+      <c r="F361" t="s">
+        <v>484</v>
+      </c>
+      <c r="H361" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>28040</v>
+      </c>
+      <c r="B362">
+        <v>2021</v>
+      </c>
+      <c r="E362" t="s">
+        <v>476</v>
+      </c>
+      <c r="F362" t="s">
+        <v>485</v>
+      </c>
+      <c r="H362" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>28041</v>
+      </c>
+      <c r="B363">
+        <v>2021</v>
+      </c>
+      <c r="E363" t="s">
+        <v>476</v>
+      </c>
+      <c r="F363" t="s">
+        <v>486</v>
+      </c>
+      <c r="H363" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>28041</v>
+      </c>
+      <c r="B364">
+        <v>2024</v>
+      </c>
+      <c r="E364" t="s">
+        <v>475</v>
+      </c>
+      <c r="F364" t="s">
+        <v>487</v>
+      </c>
+      <c r="H364" t="s">
+        <v>478</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S345" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
